--- a/assets/当社の価格表.xlsx
+++ b/assets/当社の価格表.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19d72c799c111e2e/デスクトップ/第１３章_Pandas/フォルダA_基本操作/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/19d72c799c111e2e/デスクトップ/第１３章_Pandas/フォルダB_日報の集計/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="60" documentId="8_{8DC78645-7A93-4E57-B34A-92F75AFF689A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9CEFC776-B9CA-46A9-A3F7-68B734AD38DB}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="8_{8DC78645-7A93-4E57-B34A-92F75AFF689A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6C8E568E-22E7-4747-9188-D6902CD005A5}"/>
   <bookViews>
     <workbookView xWindow="1140" yWindow="120" windowWidth="15670" windowHeight="9960" xr2:uid="{D14A83F7-E47D-432B-B9B3-BC17B6B90A5D}"/>
   </bookViews>
@@ -479,7 +479,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D65EDD9-2481-405E-8AE2-84825BF35022}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
